--- a/data/respose.xlsx
+++ b/data/respose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Desktop\CricAt Pro\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FD23C-4F05-4365-8B4F-C8EB4ED046BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE5E61-D5F7-49B1-9570-55B1A1F8969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4704" yWindow="1944" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t>Timestamp</t>
   </si>
@@ -34,39 +34,36 @@
     <t>Phone No</t>
   </si>
   <si>
+    <t xml:space="preserve">ALAY CHILBULE </t>
+  </si>
+  <si>
+    <t>Bowler</t>
+  </si>
+  <si>
+    <t>Righty</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1TQaFB9lnM50LQCODZVqC5FkHrgYwYwi2</t>
+  </si>
+  <si>
+    <t>Sujal</t>
+  </si>
+  <si>
+    <t>All-rounder</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1iD8cjTuG-lVJdpec4kzho6jPfZR0xphm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay agrawal </t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
     <t>Batsman</t>
   </si>
   <si>
-    <t>Righty</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1rA-dXobUykR948h3qC-MxrEB9R9Jt3HA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAY CHILBULE </t>
-  </si>
-  <si>
-    <t>Bowler</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1TQaFB9lnM50LQCODZVqC5FkHrgYwYwi2</t>
-  </si>
-  <si>
-    <t>Sujal</t>
-  </si>
-  <si>
-    <t>All-rounder</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1iD8cjTuG-lVJdpec4kzho6jPfZR0xphm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay agrawal </t>
-  </si>
-  <si>
-    <t>B013</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1u3_RUpmDIKxu0BaNUcdw1Ulu80qXIaXk</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>https://drive.google.com/open?id=1YMz_CqiVkhJldyng_JQ1MA405syddVcZ</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1JNUuajvsErZhiURY-_dw2fQgWo9DhjcM</t>
-  </si>
-  <si>
     <t>krrish Parmar</t>
   </si>
   <si>
@@ -235,6 +229,78 @@
     <t>https://drive.google.com/open?id=1etTcTFR_gRMGUNCQ4ct8RgXXs0uRDeJ6</t>
   </si>
   <si>
+    <t xml:space="preserve">Rushikesh Batkamwar </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13ssQO9MfmtvH5CyTCrhQUrqFMJT3S_8l</t>
+  </si>
+  <si>
+    <t>Tanishq Maheshwari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mWwlFLI3VnqIEMh3vU_SV5BRVusf8var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram Chandak </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19_ChIARLPKSe3bOrpWWNAdfG75xZSqU9</t>
+  </si>
+  <si>
+    <t>Mayank Thakre</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oMrW-hHSLidhQnClOvlsgKq3pkqQQC8q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paras Bhongade </t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wdu_aLdGS-NZh5OyoJM5Sjaa7TLPJS7o</t>
+  </si>
+  <si>
+    <t>Mohammed Saifee</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MYxbECUaQCJTzFrRykbi0ttSWgL4tY7x</t>
+  </si>
+  <si>
+    <t>Tekchand Husukale</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XXhw4FXpvOM25ls76u-0MrLnlclqhhs3</t>
+  </si>
+  <si>
+    <t>OM More</t>
+  </si>
+  <si>
+    <t>A3 B1 09</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MrTF9JEQ1nZ1RL13tttfKAXXXvquJkM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshuman Sharma </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-ImZ3LbUCL7e9rTz-tKKE78icv6aP5GM</t>
+  </si>
+  <si>
+    <t>Abhishek Reddy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17lkbFrjlIPlnW8OC1on7zirnvJpHkkwA</t>
+  </si>
+  <si>
+    <t>Farhan sheikh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-4AzYcPeDgNQGXZHiTXQwPptTQFWc6py</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
@@ -244,13 +310,7 @@
     <t>link</t>
   </si>
   <si>
-    <t>Harish Kumar</t>
-  </si>
-  <si>
-    <t>TEAMNAME</t>
-  </si>
-  <si>
-    <t>RCB</t>
+    <t>Ashutosh Pandey</t>
   </si>
 </sst>
 </file>
@@ -260,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -272,12 +332,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -454,10 +508,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -466,13 +520,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -481,13 +535,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -505,6 +559,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -533,13 +590,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +657,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:G28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:G38">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -818,11 +872,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -832,7 +886,7 @@
     <col min="8" max="13" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,644 +896,856 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45684.98460113426</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>405</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9322580713</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45684.986511331022</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>423</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9422839988</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45684.987195983791</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9179369610</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>45684.988681805553</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11">
+        <v>7058293095</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45684.989789756946</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7">
+        <v>202</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6232563498</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45684.990892187503</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11">
+        <v>9541803416</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45684.991943020832</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7">
+        <v>402</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9511254537</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>45684.994305300926</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>409</v>
+      </c>
+      <c r="D9" s="11">
+        <v>9834660892</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45684.995868206017</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7051251897</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45684.996359004625</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="11">
+        <v>207</v>
+      </c>
+      <c r="D11" s="11">
+        <v>9024489902</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45684.997370729165</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7">
+        <v>899167963</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>45684.997928275465</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11">
+        <v>207</v>
+      </c>
+      <c r="D13" s="11">
+        <v>8208315793</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45685.005022337966</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7006721447</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>45685.012170879629</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11">
+        <v>8329114065</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45685.015859340274</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8080691697</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45685.088408622687</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="11">
+        <v>59</v>
+      </c>
+      <c r="D17" s="11">
+        <v>9424594503</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45685.256607719908</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7">
+        <v>205</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8305021298</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45685.296390543983</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="11">
+        <v>315</v>
+      </c>
+      <c r="D19" s="11">
+        <v>6266410004</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45685.301926689819</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7">
+        <v>404</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7887687104</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45685.312016886572</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="11">
+        <v>404</v>
+      </c>
+      <c r="D21" s="11">
+        <v>7709238408</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45685.336882719908</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7006263272</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45685.390390821762</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="11">
+        <v>7987351384</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45685.419169976856</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8899990354</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45685.528611261572</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="11">
+        <v>7889959436</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45685.548531655091</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="7">
+        <v>314</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9630506293</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45685.581642106481</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="11">
+        <v>35</v>
+      </c>
+      <c r="D27" s="11">
+        <v>9834963742</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45685.672266458336</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C28" s="7">
+        <v>318</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7709896305</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45685.793141620372</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="11">
+        <v>9657177484</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45685.79856023148</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>45684.970313032405</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="6">
-        <v>123</v>
-      </c>
-      <c r="D2" s="5">
-        <v>4654654654</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C30" s="7">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9529567785</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>45685.799175335647</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="11">
+        <v>7058428533</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45685.79981542824</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="7">
+        <v>42</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8237934495</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>45685.800124097223</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7620405038</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>45684.98460113426</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10">
-        <v>405</v>
-      </c>
-      <c r="D3" s="9">
-        <v>9322580713</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>45684.986511331022</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>423</v>
-      </c>
-      <c r="D4" s="5">
-        <v>9422839988</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>45684.987195983791</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="F33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45685.80371493056</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="7">
+        <v>8668851811</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9">
-        <v>9179369610</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45684.988681805553</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7058293095</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>45684.989789756946</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10">
-        <v>202</v>
-      </c>
-      <c r="D7" s="9">
-        <v>6232563498</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>45684.990892187503</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="F34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>45685.825101712966</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="11">
+        <v>208</v>
+      </c>
+      <c r="D35" s="11">
+        <v>9834457512</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>45686.436028148149</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="7">
+        <v>317</v>
+      </c>
+      <c r="D36" s="7">
+        <v>8208141211</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>45686.632999733796</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="17">
+        <v>8788272485</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5">
-        <v>9541803416</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>45684.991943020832</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="10">
-        <v>402</v>
-      </c>
-      <c r="D9" s="9">
-        <v>9511254537</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45684.994305300926</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6">
-        <v>409</v>
-      </c>
-      <c r="D10" s="5">
-        <v>9834660892</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>45684.995868206017</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9">
-        <v>7051251897</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45684.996359004625</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6">
-        <v>207</v>
-      </c>
-      <c r="D12" s="5">
-        <v>9024489902</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>45684.997370729165</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9">
-        <v>899167963</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45684.997928275465</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6">
-        <v>207</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8208315793</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>45685.005022337966</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9">
-        <v>7006721447</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45685.012170879629</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5">
-        <v>8329114065</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>45685.01373987268</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9">
-        <v>8329114066</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45685.015859340274</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5">
-        <v>8080691697</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>45685.088408622687</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10">
-        <v>59</v>
-      </c>
-      <c r="D19" s="9">
-        <v>9424594503</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45685.256607719908</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="6">
-        <v>205</v>
-      </c>
-      <c r="D20" s="5">
-        <v>8305021298</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>45685.296390543983</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="10">
-        <v>315</v>
-      </c>
-      <c r="D21" s="9">
-        <v>6266410004</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>45685.301926689819</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="6">
-        <v>404</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7887687104</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>45685.312016886572</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="10">
-        <v>404</v>
-      </c>
-      <c r="D23" s="9">
-        <v>7709238408</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>45685.336882719908</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="5">
-        <v>7006263272</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>45685.390390821762</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="9">
-        <v>7987351384</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>45685.419169976856</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="5">
-        <v>8899990354</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>45685.528611261572</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="9">
-        <v>7889959436</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>45685.548531655091</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="17">
-        <v>314</v>
-      </c>
-      <c r="D28" s="16">
-        <v>9630506293</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>70</v>
+      <c r="G37" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1511,10 +1777,19 @@
     <hyperlink ref="G26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="G27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="G28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>